--- a/docs/Classifcation Reports/LinearSVC()_2.xlsx
+++ b/docs/Classifcation Reports/LinearSVC()_2.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8741883116883117</v>
+        <v>0.8564554931836408</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9389712292938099</v>
+        <v>0.9393139841688655</v>
       </c>
       <c r="D2" t="n">
-        <v>0.905422446406053</v>
+        <v>0.8959731543624161</v>
       </c>
       <c r="E2" t="n">
-        <v>1147</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9631999999999999</v>
+        <v>0.9542586750788643</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9218989280245024</v>
+        <v>0.9438377535101404</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9420970266040688</v>
+        <v>0.9490196078431372</v>
       </c>
       <c r="E3" t="n">
-        <v>653</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8319018404907975</v>
+        <v>0.8596713021491783</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8659003831417624</v>
+        <v>0.8436724565756824</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8485607008760951</v>
+        <v>0.8515967438948028</v>
       </c>
       <c r="E4" t="n">
-        <v>783</v>
+        <v>806</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8694029850746269</v>
+        <v>0.8544776119402985</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6526610644257703</v>
+        <v>0.6432584269662921</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7456</v>
+        <v>0.7339743589743589</v>
       </c>
       <c r="E5" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.8782312925170068</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.8782312925170068</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.8782312925170068</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.8782312925170068</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8846732843134339</v>
+        <v>0.8812157705879955</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8448579012214613</v>
+        <v>0.8425206553052451</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8604200434715542</v>
+        <v>0.8576409662686788</v>
       </c>
       <c r="E7" t="n">
         <v>2940</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8821155103001463</v>
+        <v>0.8784213625368488</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8809523809523809</v>
+        <v>0.8782312925170068</v>
       </c>
       <c r="D8" t="n">
-        <v>0.879017392240198</v>
+        <v>0.8757567661604083</v>
       </c>
       <c r="E8" t="n">
         <v>2940</v>
